--- a/Entregas dos trabalhos/Lista de Materiais(BOM).xlsx
+++ b/Entregas dos trabalhos/Lista de Materiais(BOM).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4cfb557e28084b1c/Documentos/Faculdade/6° Semestre/SEMB1/PRJ-SEMB/Entregas dos trabalhos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{36B159E4-49E8-4638-A08E-99050CC0B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6929895-9C09-4991-8755-315D9B1AC7B2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{182C51EA-75E5-4D85-8150-F37F781F8B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Amplificador instrumental AD623</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Eletrodo 1x01 P2.54M vertical</t>
   </si>
   <si>
-    <t>Núcleo de Ferrita</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Resistor de 10k </t>
     </r>
@@ -264,12 +261,117 @@
   <si>
     <t>Materiais utilizados</t>
   </si>
+  <si>
+    <t>Part Numbers</t>
+  </si>
+  <si>
+    <t>584-AD623ARMZ-R7</t>
+  </si>
+  <si>
+    <t>LM358BAIDR</t>
+  </si>
+  <si>
+    <t>06033D475KAT2A</t>
+  </si>
+  <si>
+    <t>08051C103J4Z2A</t>
+  </si>
+  <si>
+    <t>C0603C104J1RACAUTO</t>
+  </si>
+  <si>
+    <t>MSASJ168BB7475KTNA01</t>
+  </si>
+  <si>
+    <t>C1005X7R1C104K050BC</t>
+  </si>
+  <si>
+    <t>VJ0603D270FXPAJ</t>
+  </si>
+  <si>
+    <t>293D105X9016A2TE3</t>
+  </si>
+  <si>
+    <t>06036D335MAT2A</t>
+  </si>
+  <si>
+    <t>C0805C394J5RACTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ASCODV-25.000MHz-LR-T3</t>
+  </si>
+  <si>
+    <t>KGM05CR71H104KH</t>
+  </si>
+  <si>
+    <t>TNPU060310K0AWEN00</t>
+  </si>
+  <si>
+    <t>TNPU0603100KHZEN00</t>
+  </si>
+  <si>
+    <t>TNPU06031K00AWEN00</t>
+  </si>
+  <si>
+    <t>MCT06030F1000BP100</t>
+  </si>
+  <si>
+    <t>594-MCT06030D6501BP1</t>
+  </si>
+  <si>
+    <t>LM1117S-ADJ/NOPB</t>
+  </si>
+  <si>
+    <t>Ferrite Beads</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>SMLD12EN1WT86</t>
+  </si>
+  <si>
+    <t>MAX30100EFD+</t>
+  </si>
+  <si>
+    <t>ILI9488</t>
+  </si>
+  <si>
+    <t>MLX90614ESF-ACC-000-TU</t>
+  </si>
+  <si>
+    <t>CZRU52C3V3-HF</t>
+  </si>
+  <si>
+    <t>MINI-SPDT-SW</t>
+  </si>
+  <si>
+    <t>436333033816</t>
+  </si>
+  <si>
+    <t>SM6T6V8AY</t>
+  </si>
+  <si>
+    <t>2-1445087-9</t>
+  </si>
+  <si>
+    <t>TW-04-02-T-S-170-SM</t>
+  </si>
+  <si>
+    <t>105164-0001</t>
+  </si>
+  <si>
+    <t>TW-01-01-T-S-126-075</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +404,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -329,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -338,16 +461,60 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -356,26 +523,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -384,43 +536,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -429,28 +547,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -459,95 +560,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -557,11 +570,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,71 +633,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,6 +662,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -951,433 +965,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C203187-041C-4369-9C32-1453732B6295}">
-  <dimension ref="B1:D39"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" customWidth="1"/>
-    <col min="4" max="4" width="83.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="124.140625" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+      <c r="E6" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19">
+      <c r="E8" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+      <c r="E10" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="E11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="E14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="E20" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="17">
+      <c r="E21" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>7</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>3</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="E26" s="9">
+        <v>74269262601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="17">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="17">
+      <c r="E28" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="17">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="19">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="22" t="s">
+      <c r="E31" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="19">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="E33" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="E34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="E35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="18" t="s">
+    </row>
+    <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="19">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="17">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="E37" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="23">
-        <v>1</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>59</v>
+      <c r="E38" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B2:E3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" display="https://br.mouser.com/ProductDetail/TAIYO-YUDEN/MSASJ168BB7475KTNA01?qs=sGAEpiMZZMsh%252B1woXyUXj3XUfju0vRpjnOxlnPehCi4%3D" xr:uid="{F789F10D-4E4E-434F-9EC9-C862F03CB885}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>